--- a/data/Formularios/Resumen Formularios.xlsx
+++ b/data/Formularios/Resumen Formularios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamara\Documents\Repositories\Mapper\data\Formularios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D4147-E5B5-4ED8-A1AB-A262BDDF5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB3A81-8A67-41C3-A30F-323A32B1C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{0D2320D8-163C-4FC0-8744-2E870B5D1835}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D2320D8-163C-4FC0-8744-2E870B5D1835}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogos" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="494">
   <si>
     <t>Mapa Municipio</t>
   </si>
@@ -1541,6 +1541,12 @@
   </si>
   <si>
     <t>Reporte</t>
+  </si>
+  <si>
+    <t>Tipo Pregunta</t>
+  </si>
+  <si>
+    <t>Solicitud</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1606,6 +1612,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1624,7 +1641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1634,7 +1651,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A7D08-63ED-49DB-87A6-5D19D44D0855}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,6 +2011,12 @@
       <c r="C1" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2006,6 +2031,9 @@
       <c r="D2" t="s">
         <v>465</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2021,6 +2049,9 @@
       <c r="D3" t="s">
         <v>465</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2036,6 +2067,9 @@
       <c r="D4" t="s">
         <v>465</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -2048,6 +2082,9 @@
       <c r="D5" t="s">
         <v>465</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2063,6 +2100,9 @@
       <c r="D6" t="s">
         <v>465</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2078,6 +2118,9 @@
       <c r="D7" t="s">
         <v>465</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2093,6 +2136,9 @@
       <c r="D8" t="s">
         <v>465</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2108,6 +2154,9 @@
       <c r="D9" t="s">
         <v>465</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2159,6 +2208,9 @@
       <c r="D12" t="s">
         <v>419</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2192,6 +2244,9 @@
       <c r="D14" t="s">
         <v>466</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2225,6 +2280,9 @@
       <c r="D16" t="s">
         <v>466</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2240,6 +2298,9 @@
       <c r="D17" t="s">
         <v>419</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2255,6 +2316,9 @@
       <c r="D18" t="s">
         <v>419</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2270,6 +2334,9 @@
       <c r="D19" t="s">
         <v>467</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2357,6 +2424,9 @@
       <c r="D24" t="s">
         <v>419</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2426,6 +2496,9 @@
       <c r="D28" t="s">
         <v>419</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2441,6 +2514,9 @@
       <c r="D29" t="s">
         <v>419</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2456,6 +2532,9 @@
       <c r="D30" t="s">
         <v>419</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2471,6 +2550,9 @@
       <c r="D31" t="s">
         <v>419</v>
       </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2486,6 +2568,9 @@
       <c r="D32" t="s">
         <v>419</v>
       </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2555,6 +2640,9 @@
       <c r="D36" t="s">
         <v>419</v>
       </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2624,6 +2712,9 @@
       <c r="D40" t="s">
         <v>419</v>
       </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
@@ -2635,6 +2726,9 @@
       </c>
       <c r="D41" t="s">
         <v>419</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4801,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -4775,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -5108,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>324</v>
       </c>
@@ -5142,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>337</v>
       </c>
@@ -5221,7 +5315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>375</v>
       </c>
@@ -9702,7 +9796,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>130</v>
       </c>
@@ -9809,7 +9903,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>220</v>
       </c>
@@ -9945,7 +10039,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>331</v>
       </c>
@@ -9956,7 +10050,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>337</v>
       </c>
@@ -11378,7 +11472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772C846E-FBF8-4E6A-A554-F07E8F27AE75}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11414,7 +11508,7 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>464</v>
       </c>
     </row>
